--- a/vampire-the-masquerade/checklist.xlsx
+++ b/vampire-the-masquerade/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/vampire-the-masquerade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{927C6BBC-CF36-5E40-9024-38EF707E21F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CC4E27-E8B7-E84D-ADBB-DB7D43C5B463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="600" windowWidth="25080" windowHeight="15800" xr2:uid="{7A5CFDC4-80B8-7A42-8882-BBC55ADAF302}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>year</t>
   </si>
@@ -98,6 +98,15 @@
   </si>
   <si>
     <t>storytellers_companion.jpg</t>
+  </si>
+  <si>
+    <t>メイジ : ジ・アセンション</t>
+  </si>
+  <si>
+    <t>Mage the Ascension</t>
+  </si>
+  <si>
+    <t>mage_the_ascension.jpg</t>
   </si>
 </sst>
 </file>
@@ -449,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B01927-BBFC-784B-AD8C-86E4B9933773}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -562,6 +571,26 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2002</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/vampire-the-masquerade/checklist.xlsx
+++ b/vampire-the-masquerade/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/vampire-the-masquerade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CC4E27-E8B7-E84D-ADBB-DB7D43C5B463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{14E44AA7-DD19-0E4E-8277-8EA5314EE226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="600" windowWidth="25080" windowHeight="15800" xr2:uid="{7A5CFDC4-80B8-7A42-8882-BBC55ADAF302}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>year</t>
   </si>
@@ -107,6 +107,24 @@
   </si>
   <si>
     <t>mage_the_ascension.jpg</t>
+  </si>
+  <si>
+    <t>werewolf_the_apocalypse.jpg</t>
+  </si>
+  <si>
+    <t>Werewolf the Apocalypse</t>
+  </si>
+  <si>
+    <t>ワーウルフ：ジ・アポカリプス</t>
+  </si>
+  <si>
+    <t>ワーウルフ・ストーリーテラー・コンパニオン</t>
+  </si>
+  <si>
+    <t>werewolf_storytellers_companion.jpg</t>
+  </si>
+  <si>
+    <t>Werewolf Storyteller's Companion</t>
   </si>
 </sst>
 </file>
@@ -458,15 +476,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B01927-BBFC-784B-AD8C-86E4B9933773}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
   </cols>
@@ -533,22 +551,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -556,16 +574,16 @@
         <v>2002</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -576,22 +594,65 @@
         <v>2002</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2002</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2003</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F7">
+    <sortCondition ref="A2:A7"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/vampire-the-masquerade/checklist.xlsx
+++ b/vampire-the-masquerade/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/vampire-the-masquerade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{14E44AA7-DD19-0E4E-8277-8EA5314EE226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474AD03C-C75A-794D-9EF7-2E6952A68E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="600" windowWidth="25080" windowHeight="15800" xr2:uid="{7A5CFDC4-80B8-7A42-8882-BBC55ADAF302}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>year</t>
   </si>
@@ -125,6 +125,24 @@
   </si>
   <si>
     <t>Werewolf Storyteller's Companion</t>
+  </si>
+  <si>
+    <t>ヴィクトリアン・エイジ・ヴァンパイア</t>
+  </si>
+  <si>
+    <t>Victorian Age Vampire</t>
+  </si>
+  <si>
+    <t>victorian_age_vampire.jpg</t>
+  </si>
+  <si>
+    <t>ノド書</t>
+  </si>
+  <si>
+    <t>The Book of Nod</t>
+  </si>
+  <si>
+    <t>the_book_of_nod.jpg</t>
   </si>
 </sst>
 </file>
@@ -476,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B01927-BBFC-784B-AD8C-86E4B9933773}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -649,6 +667,46 @@
         <v>14</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2004</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2005</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F7">
     <sortCondition ref="A2:A7"/>
